--- a/data/pca/factorExposure/factorExposure_2011-10-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01082466944835738</v>
+        <v>-0.01421596329744073</v>
       </c>
       <c r="C2">
-        <v>-0.02527796237899448</v>
+        <v>0.01448594490950796</v>
       </c>
       <c r="D2">
-        <v>0.02139153306593022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0216485321237198</v>
+      </c>
+      <c r="E2">
+        <v>-0.01155422785112395</v>
+      </c>
+      <c r="F2">
+        <v>0.03443690955752216</v>
+      </c>
+      <c r="G2">
+        <v>0.01626503352537035</v>
+      </c>
+      <c r="H2">
+        <v>0.0245657651654985</v>
+      </c>
+      <c r="I2">
+        <v>0.02571389334673605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07801429640658197</v>
+        <v>-0.09050659088745615</v>
       </c>
       <c r="C4">
-        <v>-0.05805898657945172</v>
+        <v>-0.003279882131134323</v>
       </c>
       <c r="D4">
-        <v>0.07607309894226176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08273116608366599</v>
+      </c>
+      <c r="E4">
+        <v>-0.004902020087813518</v>
+      </c>
+      <c r="F4">
+        <v>0.04223105597804227</v>
+      </c>
+      <c r="G4">
+        <v>-0.0218674154065691</v>
+      </c>
+      <c r="H4">
+        <v>-0.03363000227863595</v>
+      </c>
+      <c r="I4">
+        <v>0.04908695609019056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.1154710374080121</v>
+        <v>-0.1260462472557518</v>
       </c>
       <c r="C6">
-        <v>-0.05357289696875546</v>
+        <v>0.02540954343732165</v>
       </c>
       <c r="D6">
-        <v>0.001687875746595637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02626933061015268</v>
+      </c>
+      <c r="E6">
+        <v>0.02419897323086425</v>
+      </c>
+      <c r="F6">
+        <v>0.04949695838759496</v>
+      </c>
+      <c r="G6">
+        <v>-0.0395369379740926</v>
+      </c>
+      <c r="H6">
+        <v>0.1693142989676097</v>
+      </c>
+      <c r="I6">
+        <v>-0.01149950050917405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.05897708457314292</v>
+        <v>-0.06526820707166733</v>
       </c>
       <c r="C7">
-        <v>-0.04228965440694707</v>
+        <v>-0.007706323447851663</v>
       </c>
       <c r="D7">
-        <v>0.03071153712618604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.06036583262850709</v>
+      </c>
+      <c r="E7">
+        <v>-0.01763047309708213</v>
+      </c>
+      <c r="F7">
+        <v>0.0502919412409147</v>
+      </c>
+      <c r="G7">
+        <v>0.0184643709569546</v>
+      </c>
+      <c r="H7">
+        <v>-0.01906449669540737</v>
+      </c>
+      <c r="I7">
+        <v>0.001338327938192463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03720607079124457</v>
+        <v>-0.04173391331476699</v>
       </c>
       <c r="C8">
-        <v>-0.0130656623252429</v>
+        <v>-0.006816553293076974</v>
       </c>
       <c r="D8">
-        <v>0.06159023313124166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02959578444175634</v>
+      </c>
+      <c r="E8">
+        <v>-0.006732069960168934</v>
+      </c>
+      <c r="F8">
+        <v>0.07835097042587864</v>
+      </c>
+      <c r="G8">
+        <v>-0.08523563517053909</v>
+      </c>
+      <c r="H8">
+        <v>0.01634760787784025</v>
+      </c>
+      <c r="I8">
+        <v>0.09400531225742256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07416396444404397</v>
+        <v>-0.08231691115876064</v>
       </c>
       <c r="C9">
-        <v>-0.04707552013656777</v>
+        <v>-0.00814617056483208</v>
       </c>
       <c r="D9">
-        <v>0.07114263779872013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.07143359186971734</v>
+      </c>
+      <c r="E9">
+        <v>-0.01726159448903731</v>
+      </c>
+      <c r="F9">
+        <v>0.039289772127592</v>
+      </c>
+      <c r="G9">
+        <v>-0.03687143903029912</v>
+      </c>
+      <c r="H9">
+        <v>-0.03419336441394966</v>
+      </c>
+      <c r="I9">
+        <v>0.05417363612397811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02451999476011264</v>
+        <v>-0.05328477038090861</v>
       </c>
       <c r="C10">
-        <v>-0.01156213848452588</v>
+        <v>0.1413187373513364</v>
       </c>
       <c r="D10">
-        <v>-0.171852652185224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1337565432844879</v>
+      </c>
+      <c r="E10">
+        <v>-0.02568639893665427</v>
+      </c>
+      <c r="F10">
+        <v>0.05855494284047045</v>
+      </c>
+      <c r="G10">
+        <v>0.04050665027002029</v>
+      </c>
+      <c r="H10">
+        <v>0.03409876366737862</v>
+      </c>
+      <c r="I10">
+        <v>-0.03571507614495576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06769870204943625</v>
+        <v>-0.07261987723798183</v>
       </c>
       <c r="C11">
-        <v>-0.04374740244961264</v>
+        <v>-0.01084774380960247</v>
       </c>
       <c r="D11">
-        <v>0.05537597423271644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.063910356562885</v>
+      </c>
+      <c r="E11">
+        <v>-0.002276833029299444</v>
+      </c>
+      <c r="F11">
+        <v>0.04029487866049726</v>
+      </c>
+      <c r="G11">
+        <v>-0.04594361089757044</v>
+      </c>
+      <c r="H11">
+        <v>-0.05617119670046769</v>
+      </c>
+      <c r="I11">
+        <v>0.06163864954514463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.06201480083756018</v>
+        <v>-0.06848232838086045</v>
       </c>
       <c r="C12">
-        <v>-0.05495047596191634</v>
+        <v>0.002760741476390499</v>
       </c>
       <c r="D12">
-        <v>0.04322504306934321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.06058290668890252</v>
+      </c>
+      <c r="E12">
+        <v>-0.00845945564999747</v>
+      </c>
+      <c r="F12">
+        <v>0.03045865991429419</v>
+      </c>
+      <c r="G12">
+        <v>-0.02442410699554909</v>
+      </c>
+      <c r="H12">
+        <v>-0.02624758996046845</v>
+      </c>
+      <c r="I12">
+        <v>0.06330316358145452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06766683626463231</v>
+        <v>-0.06877512705653668</v>
       </c>
       <c r="C13">
-        <v>-0.04783981374092686</v>
+        <v>0.005008607233495332</v>
       </c>
       <c r="D13">
-        <v>0.04592067682255994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04963072020890218</v>
+      </c>
+      <c r="E13">
+        <v>-0.007590585864487156</v>
+      </c>
+      <c r="F13">
+        <v>0.02018729273260627</v>
+      </c>
+      <c r="G13">
+        <v>-0.02910669227815965</v>
+      </c>
+      <c r="H13">
+        <v>-0.04557115729519819</v>
+      </c>
+      <c r="I13">
+        <v>0.0701529448700447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02995890903328418</v>
+        <v>-0.0403609933971977</v>
       </c>
       <c r="C14">
-        <v>-0.02978772778892252</v>
+        <v>0.01655210944875723</v>
       </c>
       <c r="D14">
-        <v>-0.0006489952580547345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02720877840975245</v>
+      </c>
+      <c r="E14">
+        <v>-0.02078157002076893</v>
+      </c>
+      <c r="F14">
+        <v>0.0197314235134411</v>
+      </c>
+      <c r="G14">
+        <v>-0.01909408440378033</v>
+      </c>
+      <c r="H14">
+        <v>-0.07019291639334951</v>
+      </c>
+      <c r="I14">
+        <v>0.02545907030599017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.04302780554790869</v>
+        <v>-0.04041964538449342</v>
       </c>
       <c r="C15">
-        <v>-0.00846500341096253</v>
+        <v>-0.007330160067120631</v>
       </c>
       <c r="D15">
-        <v>0.02583574127385982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01157230806629786</v>
+      </c>
+      <c r="E15">
+        <v>-0.02951559895919604</v>
+      </c>
+      <c r="F15">
+        <v>0.003857086625301676</v>
+      </c>
+      <c r="G15">
+        <v>-0.02942422610210286</v>
+      </c>
+      <c r="H15">
+        <v>-0.03127531905404505</v>
+      </c>
+      <c r="I15">
+        <v>-0.0134141062831349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05708611175206078</v>
+        <v>-0.0692445463861939</v>
       </c>
       <c r="C16">
-        <v>-0.04163383454534846</v>
+        <v>-0.008702910361627033</v>
       </c>
       <c r="D16">
-        <v>0.05367614477855108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06656034429906744</v>
+      </c>
+      <c r="E16">
+        <v>-0.004284798492615607</v>
+      </c>
+      <c r="F16">
+        <v>0.03508857900156299</v>
+      </c>
+      <c r="G16">
+        <v>-0.02314633631892943</v>
+      </c>
+      <c r="H16">
+        <v>-0.04291023158508309</v>
+      </c>
+      <c r="I16">
+        <v>0.03943009922669275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.06409652882270575</v>
+        <v>-0.06385076661808207</v>
       </c>
       <c r="C20">
-        <v>-0.02840372529756006</v>
+        <v>-0.0133841884233782</v>
       </c>
       <c r="D20">
-        <v>0.04975372664245774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0416350142309051</v>
+      </c>
+      <c r="E20">
+        <v>-0.001158498256672981</v>
+      </c>
+      <c r="F20">
+        <v>0.02610662853018666</v>
+      </c>
+      <c r="G20">
+        <v>-0.02255374979143967</v>
+      </c>
+      <c r="H20">
+        <v>-0.0426885453286523</v>
+      </c>
+      <c r="I20">
+        <v>0.06726863743883754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03187552980147405</v>
+        <v>-0.0264339205469612</v>
       </c>
       <c r="C21">
-        <v>-0.01227533434171869</v>
+        <v>-0.009862689988921465</v>
       </c>
       <c r="D21">
-        <v>0.009156434028835855</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01874803424175414</v>
+      </c>
+      <c r="E21">
+        <v>-0.0334972624225407</v>
+      </c>
+      <c r="F21">
+        <v>-0.00880196143384371</v>
+      </c>
+      <c r="G21">
+        <v>-0.01038101192259365</v>
+      </c>
+      <c r="H21">
+        <v>0.03965900638328626</v>
+      </c>
+      <c r="I21">
+        <v>-0.02355250904952439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.08581699879168131</v>
+        <v>-0.07767767595118576</v>
       </c>
       <c r="C22">
-        <v>-0.08487185991035065</v>
+        <v>-0.001631578699638275</v>
       </c>
       <c r="D22">
-        <v>0.1256045105667018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1103483549400247</v>
+      </c>
+      <c r="E22">
+        <v>-0.6062554278945468</v>
+      </c>
+      <c r="F22">
+        <v>-0.006587152751034446</v>
+      </c>
+      <c r="G22">
+        <v>0.2006638013763315</v>
+      </c>
+      <c r="H22">
+        <v>0.1310430282470994</v>
+      </c>
+      <c r="I22">
+        <v>-0.125819175637406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.08643974126869522</v>
+        <v>-0.07841630445983522</v>
       </c>
       <c r="C23">
-        <v>-0.08574856166679387</v>
+        <v>-0.001200146682840427</v>
       </c>
       <c r="D23">
-        <v>0.1255780895034317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1114198249171055</v>
+      </c>
+      <c r="E23">
+        <v>-0.6088894205865842</v>
+      </c>
+      <c r="F23">
+        <v>-0.004758158278805621</v>
+      </c>
+      <c r="G23">
+        <v>0.1945549224389671</v>
+      </c>
+      <c r="H23">
+        <v>0.1305606878352147</v>
+      </c>
+      <c r="I23">
+        <v>-0.1276106949118606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.07427155081480709</v>
+        <v>-0.07934687583545066</v>
       </c>
       <c r="C24">
-        <v>-0.05234627774045531</v>
+        <v>-0.004877344531495997</v>
       </c>
       <c r="D24">
-        <v>0.0585258760644098</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06735752518062177</v>
+      </c>
+      <c r="E24">
+        <v>-0.01111808710575486</v>
+      </c>
+      <c r="F24">
+        <v>0.04218158667700478</v>
+      </c>
+      <c r="G24">
+        <v>-0.04086481123154539</v>
+      </c>
+      <c r="H24">
+        <v>-0.02593849553166731</v>
+      </c>
+      <c r="I24">
+        <v>0.05381168441275619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.07174212763129996</v>
+        <v>-0.07731757022026142</v>
       </c>
       <c r="C25">
-        <v>-0.0581834461000201</v>
+        <v>0.005215410030769383</v>
       </c>
       <c r="D25">
-        <v>0.05533801840251584</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06447914852394476</v>
+      </c>
+      <c r="E25">
+        <v>-0.01649821108455356</v>
+      </c>
+      <c r="F25">
+        <v>0.03784195009198725</v>
+      </c>
+      <c r="G25">
+        <v>-0.04819181558130418</v>
+      </c>
+      <c r="H25">
+        <v>-0.03336328041922507</v>
+      </c>
+      <c r="I25">
+        <v>0.06758248539001593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.04542699916475704</v>
+        <v>-0.04650117043594326</v>
       </c>
       <c r="C26">
-        <v>-0.01499450775842421</v>
+        <v>-0.005855501431807851</v>
       </c>
       <c r="D26">
-        <v>0.01470937520186183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01886359683145552</v>
+      </c>
+      <c r="E26">
+        <v>-0.04241751036145675</v>
+      </c>
+      <c r="F26">
+        <v>0.0276447192324475</v>
+      </c>
+      <c r="G26">
+        <v>-0.02651060105706266</v>
+      </c>
+      <c r="H26">
+        <v>-0.04285648926949354</v>
+      </c>
+      <c r="I26">
+        <v>-0.047217825264687</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04400678701593398</v>
+        <v>-0.07470830424814792</v>
       </c>
       <c r="C28">
-        <v>-0.04751832990183959</v>
+        <v>0.2362767877936247</v>
       </c>
       <c r="D28">
-        <v>-0.3119142873310586</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2118591623269041</v>
+      </c>
+      <c r="E28">
+        <v>-0.02672865246835101</v>
+      </c>
+      <c r="F28">
+        <v>0.05686830711646712</v>
+      </c>
+      <c r="G28">
+        <v>-0.02467008923162385</v>
+      </c>
+      <c r="H28">
+        <v>0.06696801037820047</v>
+      </c>
+      <c r="I28">
+        <v>-0.06509771544780399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.04611812202069211</v>
+        <v>-0.05104664877031921</v>
       </c>
       <c r="C29">
-        <v>-0.04017336179687148</v>
+        <v>0.01940527934217964</v>
       </c>
       <c r="D29">
-        <v>0.001136835252183326</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02905009402210717</v>
+      </c>
+      <c r="E29">
+        <v>-0.04486202311764148</v>
+      </c>
+      <c r="F29">
+        <v>0.02770899208566697</v>
+      </c>
+      <c r="G29">
+        <v>-0.009812266325564603</v>
+      </c>
+      <c r="H29">
+        <v>-0.09593561635095589</v>
+      </c>
+      <c r="I29">
+        <v>0.007618992807565886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1351463574243162</v>
+        <v>-0.1294233956255711</v>
       </c>
       <c r="C30">
-        <v>-0.09617149752896914</v>
+        <v>0.008428534881597359</v>
       </c>
       <c r="D30">
-        <v>0.09943534174512803</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09789197119539703</v>
+      </c>
+      <c r="E30">
+        <v>-0.0603130842882165</v>
+      </c>
+      <c r="F30">
+        <v>0.03019029828975891</v>
+      </c>
+      <c r="G30">
+        <v>-0.06640598772908808</v>
+      </c>
+      <c r="H30">
+        <v>0.05690828232625948</v>
+      </c>
+      <c r="I30">
+        <v>0.1701818954386878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04801955209045467</v>
+        <v>-0.0473137873039773</v>
       </c>
       <c r="C31">
-        <v>-0.02447981874658966</v>
+        <v>-0.01008060578082791</v>
       </c>
       <c r="D31">
-        <v>0.02029153504298618</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03646211800631088</v>
+      </c>
+      <c r="E31">
+        <v>-0.0194720586945761</v>
+      </c>
+      <c r="F31">
+        <v>0.01386906208853372</v>
+      </c>
+      <c r="G31">
+        <v>-0.0008947031160600317</v>
+      </c>
+      <c r="H31">
+        <v>-0.07108293918605618</v>
+      </c>
+      <c r="I31">
+        <v>0.01306834809379529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0370704425890413</v>
+        <v>-0.04143082840048876</v>
       </c>
       <c r="C32">
-        <v>-0.02674907612091465</v>
+        <v>0.01575355434629403</v>
       </c>
       <c r="D32">
-        <v>0.03326221126223145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.02069396097455277</v>
+      </c>
+      <c r="E32">
+        <v>-0.04383044623068251</v>
+      </c>
+      <c r="F32">
+        <v>-0.01176421623051567</v>
+      </c>
+      <c r="G32">
+        <v>-0.02977263152607585</v>
+      </c>
+      <c r="H32">
+        <v>0.007052199962074521</v>
+      </c>
+      <c r="I32">
+        <v>0.01171815803335276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.08772188443268195</v>
+        <v>-0.09446531577136</v>
       </c>
       <c r="C33">
-        <v>-0.04549889637758234</v>
+        <v>-0.007705543176702505</v>
       </c>
       <c r="D33">
-        <v>0.04811111644840822</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05679355091768339</v>
+      </c>
+      <c r="E33">
+        <v>-0.01487886112138125</v>
+      </c>
+      <c r="F33">
+        <v>0.00479435280083253</v>
+      </c>
+      <c r="G33">
+        <v>-0.01145600942030517</v>
+      </c>
+      <c r="H33">
+        <v>-0.05893664746210071</v>
+      </c>
+      <c r="I33">
+        <v>0.05808373003562092</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05864482698809804</v>
+        <v>-0.06672411262658215</v>
       </c>
       <c r="C34">
-        <v>-0.02795088824295227</v>
+        <v>-0.01298668496665595</v>
       </c>
       <c r="D34">
-        <v>0.05206681968834642</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04729712041011862</v>
+      </c>
+      <c r="E34">
+        <v>-0.01272469927331678</v>
+      </c>
+      <c r="F34">
+        <v>0.02543960370748876</v>
+      </c>
+      <c r="G34">
+        <v>-0.02908044392086551</v>
+      </c>
+      <c r="H34">
+        <v>-0.04540247051943183</v>
+      </c>
+      <c r="I34">
+        <v>0.0523870731983141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.03607569980638634</v>
+        <v>-0.03649276416631348</v>
       </c>
       <c r="C35">
-        <v>-0.01816682946052391</v>
+        <v>-0.001691809254089622</v>
       </c>
       <c r="D35">
-        <v>0.01785862263564519</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02169743105051718</v>
+      </c>
+      <c r="E35">
+        <v>-0.01862994883453364</v>
+      </c>
+      <c r="F35">
+        <v>-0.01358252618939801</v>
+      </c>
+      <c r="G35">
+        <v>-0.003664119193575984</v>
+      </c>
+      <c r="H35">
+        <v>-0.03443350790573727</v>
+      </c>
+      <c r="I35">
+        <v>0.0286482664962735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.02776347699985261</v>
+        <v>-0.0287653798885012</v>
       </c>
       <c r="C36">
-        <v>-0.02022883468439433</v>
+        <v>0.001290938574954735</v>
       </c>
       <c r="D36">
-        <v>0.01909817105851961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02315421480532327</v>
+      </c>
+      <c r="E36">
+        <v>-0.03244657054711415</v>
+      </c>
+      <c r="F36">
+        <v>0.03281650949926464</v>
+      </c>
+      <c r="G36">
+        <v>-0.01683544930831627</v>
+      </c>
+      <c r="H36">
+        <v>-0.0406173761319049</v>
+      </c>
+      <c r="I36">
+        <v>0.03448861737928405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.05955581089804652</v>
+        <v>-0.05250235186446385</v>
       </c>
       <c r="C38">
-        <v>-0.01148012615240415</v>
+        <v>-0.01823710688865906</v>
       </c>
       <c r="D38">
-        <v>0.002898900493385626</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01968292225302393</v>
+      </c>
+      <c r="E38">
+        <v>-0.05175777387731254</v>
+      </c>
+      <c r="F38">
+        <v>-0.002822507598431982</v>
+      </c>
+      <c r="G38">
+        <v>0.004378555735439409</v>
+      </c>
+      <c r="H38">
+        <v>-0.02621391245837274</v>
+      </c>
+      <c r="I38">
+        <v>0.01462631035932479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.09614590572139989</v>
+        <v>-0.1033095206065</v>
       </c>
       <c r="C39">
-        <v>-0.0736127339344655</v>
+        <v>0.01158868095619227</v>
       </c>
       <c r="D39">
-        <v>0.04091657209528066</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0769288379768351</v>
+      </c>
+      <c r="E39">
+        <v>-0.008551550166070454</v>
+      </c>
+      <c r="F39">
+        <v>0.0156498255895636</v>
+      </c>
+      <c r="G39">
+        <v>-0.04643720726645614</v>
+      </c>
+      <c r="H39">
+        <v>-0.01147049521230685</v>
+      </c>
+      <c r="I39">
+        <v>0.06205922886581117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07995464299440519</v>
+        <v>-0.05820376588775619</v>
       </c>
       <c r="C40">
-        <v>-0.04114626412940022</v>
+        <v>-0.01489064596945266</v>
       </c>
       <c r="D40">
-        <v>0.01280183316538716</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03514724019988544</v>
+      </c>
+      <c r="E40">
+        <v>-0.03902169205208752</v>
+      </c>
+      <c r="F40">
+        <v>-0.03206433685186311</v>
+      </c>
+      <c r="G40">
+        <v>-0.07413782891100001</v>
+      </c>
+      <c r="H40">
+        <v>0.08295903581725157</v>
+      </c>
+      <c r="I40">
+        <v>0.2740828003862605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.04825279123290758</v>
+        <v>-0.04616433815809819</v>
       </c>
       <c r="C41">
-        <v>-0.01705943495797277</v>
+        <v>-0.01712545911321051</v>
       </c>
       <c r="D41">
-        <v>0.03173678226038291</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03092589175609869</v>
+      </c>
+      <c r="E41">
+        <v>-0.003064547026297667</v>
+      </c>
+      <c r="F41">
+        <v>-0.01327490271299265</v>
+      </c>
+      <c r="G41">
+        <v>-0.006476930740880274</v>
+      </c>
+      <c r="H41">
+        <v>-0.03672209703871367</v>
+      </c>
+      <c r="I41">
+        <v>0.01368308028584824</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.05533962584378616</v>
+        <v>-0.05954663551760516</v>
       </c>
       <c r="C43">
-        <v>-0.03152203687348208</v>
+        <v>-0.001582285772707363</v>
       </c>
       <c r="D43">
-        <v>0.006053322602324808</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03662835862242336</v>
+      </c>
+      <c r="E43">
+        <v>-0.01846397633996294</v>
+      </c>
+      <c r="F43">
+        <v>0.01729358881583981</v>
+      </c>
+      <c r="G43">
+        <v>0.01246375011038531</v>
+      </c>
+      <c r="H43">
+        <v>-0.06031855291787228</v>
+      </c>
+      <c r="I43">
+        <v>-0.001272007745883698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.09349177465750894</v>
+        <v>-0.09250222151045523</v>
       </c>
       <c r="C44">
-        <v>-0.0361728934937426</v>
+        <v>-0.01657339298971795</v>
       </c>
       <c r="D44">
-        <v>0.05172803909943312</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05484588307089762</v>
+      </c>
+      <c r="E44">
+        <v>-0.06858058746984012</v>
+      </c>
+      <c r="F44">
+        <v>0.089215735276636</v>
+      </c>
+      <c r="G44">
+        <v>-0.08066355299511586</v>
+      </c>
+      <c r="H44">
+        <v>-0.04233274519191063</v>
+      </c>
+      <c r="I44">
+        <v>0.1084699529423264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.0273218612832932</v>
+        <v>-0.04004929040898245</v>
       </c>
       <c r="C46">
-        <v>-0.02206636746182985</v>
+        <v>-0.002192360636753408</v>
       </c>
       <c r="D46">
-        <v>0.03121049539830968</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.04169930327695157</v>
+      </c>
+      <c r="E46">
+        <v>-0.0292571235878223</v>
+      </c>
+      <c r="F46">
+        <v>0.02064234839682871</v>
+      </c>
+      <c r="G46">
+        <v>0.002969592963470551</v>
+      </c>
+      <c r="H46">
+        <v>-0.04033777182636137</v>
+      </c>
+      <c r="I46">
+        <v>0.00593728790662116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03841948964574678</v>
+        <v>-0.04422092861026859</v>
       </c>
       <c r="C47">
-        <v>-0.02321035596115447</v>
+        <v>0.008796141811067672</v>
       </c>
       <c r="D47">
-        <v>-0.009461824984136094</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01787071360418871</v>
+      </c>
+      <c r="E47">
+        <v>-0.04044534083149862</v>
+      </c>
+      <c r="F47">
+        <v>-0.002831751551028686</v>
+      </c>
+      <c r="G47">
+        <v>0.02668424430235545</v>
+      </c>
+      <c r="H47">
+        <v>-0.02920754419491401</v>
+      </c>
+      <c r="I47">
+        <v>0.04564737823736079</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.03856968336246892</v>
+        <v>-0.04097377418306512</v>
       </c>
       <c r="C48">
-        <v>-0.02896173871981115</v>
+        <v>0.005312591516364353</v>
       </c>
       <c r="D48">
-        <v>0.02865110900134176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02526197709264585</v>
+      </c>
+      <c r="E48">
+        <v>-0.03917944032064458</v>
+      </c>
+      <c r="F48">
+        <v>0.01378323202184876</v>
+      </c>
+      <c r="G48">
+        <v>-0.02270823554195478</v>
+      </c>
+      <c r="H48">
+        <v>-0.01790465811900454</v>
+      </c>
+      <c r="I48">
+        <v>0.006193491999838625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1658490640557081</v>
+        <v>-0.2010687548174581</v>
       </c>
       <c r="C49">
-        <v>-0.04586334749438854</v>
+        <v>0.01334417461385018</v>
       </c>
       <c r="D49">
-        <v>0.007225861477069025</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03463592945517817</v>
+      </c>
+      <c r="E49">
+        <v>0.1843363050919149</v>
+      </c>
+      <c r="F49">
+        <v>0.004152057485471427</v>
+      </c>
+      <c r="G49">
+        <v>0.1652240279038915</v>
+      </c>
+      <c r="H49">
+        <v>0.2397593427070202</v>
+      </c>
+      <c r="I49">
+        <v>0.01215263422714741</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04567333947867045</v>
+        <v>-0.0486927093359894</v>
       </c>
       <c r="C50">
-        <v>-0.0310248902705519</v>
+        <v>-0.002198115443417472</v>
       </c>
       <c r="D50">
-        <v>0.03137859804884258</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04062860438362823</v>
+      </c>
+      <c r="E50">
+        <v>-0.02412193782275194</v>
+      </c>
+      <c r="F50">
+        <v>0.009675021235993985</v>
+      </c>
+      <c r="G50">
+        <v>-0.008979414007971984</v>
+      </c>
+      <c r="H50">
+        <v>-0.0756016184218624</v>
+      </c>
+      <c r="I50">
+        <v>-0.009790468233548537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.02411359203690277</v>
+        <v>-0.03389757878386756</v>
       </c>
       <c r="C51">
-        <v>-0.005002725987261959</v>
+        <v>0.00442443352277402</v>
       </c>
       <c r="D51">
-        <v>-0.004105719711012461</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001768800380703548</v>
+      </c>
+      <c r="E51">
+        <v>-0.004288200942502121</v>
+      </c>
+      <c r="F51">
+        <v>0.01527432845659791</v>
+      </c>
+      <c r="G51">
+        <v>0.02174371834031958</v>
+      </c>
+      <c r="H51">
+        <v>0.02151779777580705</v>
+      </c>
+      <c r="I51">
+        <v>0.001030794518512185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.152343437704411</v>
+        <v>-0.1603989494256169</v>
       </c>
       <c r="C53">
-        <v>-0.08035053210040007</v>
+        <v>0.03480671074342553</v>
       </c>
       <c r="D53">
-        <v>-0.009709436512728585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04450514153822605</v>
+      </c>
+      <c r="E53">
+        <v>0.03162707707946661</v>
+      </c>
+      <c r="F53">
+        <v>-0.003976205126613144</v>
+      </c>
+      <c r="G53">
+        <v>-0.001234961337003621</v>
+      </c>
+      <c r="H53">
+        <v>-0.1963695001350403</v>
+      </c>
+      <c r="I53">
+        <v>-0.02604354756851954</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.05915677998593818</v>
+        <v>-0.06073483804032798</v>
       </c>
       <c r="C54">
-        <v>-0.03080768181377653</v>
+        <v>0.01157557764647438</v>
       </c>
       <c r="D54">
-        <v>0.02029585889918963</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02173267642509012</v>
+      </c>
+      <c r="E54">
+        <v>-0.05701816374449508</v>
+      </c>
+      <c r="F54">
+        <v>0.02900291672096684</v>
+      </c>
+      <c r="G54">
+        <v>-0.06056431801966365</v>
+      </c>
+      <c r="H54">
+        <v>-0.04304850675629047</v>
+      </c>
+      <c r="I54">
+        <v>0.05537489716670935</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09832808110496902</v>
+        <v>-0.1001670760825951</v>
       </c>
       <c r="C55">
-        <v>-0.05154170688426193</v>
+        <v>0.01097660040373053</v>
       </c>
       <c r="D55">
-        <v>0.009428074720311435</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03989936761175639</v>
+      </c>
+      <c r="E55">
+        <v>0.006059559869030237</v>
+      </c>
+      <c r="F55">
+        <v>0.01874285388768798</v>
+      </c>
+      <c r="G55">
+        <v>-0.02286541511441852</v>
+      </c>
+      <c r="H55">
+        <v>-0.1566416901044264</v>
+      </c>
+      <c r="I55">
+        <v>0.0160527993147206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1437284237247144</v>
+        <v>-0.1517044999326781</v>
       </c>
       <c r="C56">
-        <v>-0.09011374557744928</v>
+        <v>0.02814245947345629</v>
       </c>
       <c r="D56">
-        <v>-0.005894564800215796</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.06568778595653577</v>
+      </c>
+      <c r="E56">
+        <v>0.02012670480995014</v>
+      </c>
+      <c r="F56">
+        <v>0.01198012185343575</v>
+      </c>
+      <c r="G56">
+        <v>-0.01282945116727226</v>
+      </c>
+      <c r="H56">
+        <v>-0.1952394453700508</v>
+      </c>
+      <c r="I56">
+        <v>-0.05788189518064428</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1194267420306857</v>
+        <v>-0.08948181337389839</v>
       </c>
       <c r="C58">
-        <v>0.01681076215487707</v>
+        <v>-0.06892960181323908</v>
       </c>
       <c r="D58">
-        <v>0.06146431440204215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0006019433306646426</v>
+      </c>
+      <c r="E58">
+        <v>-0.1058033484015699</v>
+      </c>
+      <c r="F58">
+        <v>0.03770565605670749</v>
+      </c>
+      <c r="G58">
+        <v>0.05316335818641708</v>
+      </c>
+      <c r="H58">
+        <v>0.1727533358090764</v>
+      </c>
+      <c r="I58">
+        <v>0.4865003718329532</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1241817638464364</v>
+        <v>-0.1521296825856343</v>
       </c>
       <c r="C59">
-        <v>-0.05364246673946478</v>
+        <v>0.2594323155670528</v>
       </c>
       <c r="D59">
-        <v>-0.4255323197009242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2577519184407097</v>
+      </c>
+      <c r="E59">
+        <v>-0.02581037476322522</v>
+      </c>
+      <c r="F59">
+        <v>0.01267319018598918</v>
+      </c>
+      <c r="G59">
+        <v>-0.0093581836091099</v>
+      </c>
+      <c r="H59">
+        <v>-0.02182367622623322</v>
+      </c>
+      <c r="I59">
+        <v>-0.01379550266401525</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2117764305145687</v>
+        <v>-0.2417084413747956</v>
       </c>
       <c r="C60">
-        <v>-0.09461085041983149</v>
+        <v>0.03213151860041719</v>
       </c>
       <c r="D60">
-        <v>-0.006518585490395774</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0637082263321859</v>
+      </c>
+      <c r="E60">
+        <v>0.1302976468116576</v>
+      </c>
+      <c r="F60">
+        <v>0.03838726722054048</v>
+      </c>
+      <c r="G60">
+        <v>0.03673218883425396</v>
+      </c>
+      <c r="H60">
+        <v>0.1581541750107234</v>
+      </c>
+      <c r="I60">
+        <v>-0.03586561065407778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.07604202511812563</v>
+        <v>-0.08366181907485891</v>
       </c>
       <c r="C61">
-        <v>-0.04914596050699686</v>
+        <v>0.005358083581841818</v>
       </c>
       <c r="D61">
-        <v>0.0293990415338597</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05450757128173214</v>
+      </c>
+      <c r="E61">
+        <v>-0.007491000005635219</v>
+      </c>
+      <c r="F61">
+        <v>0.02123742834680619</v>
+      </c>
+      <c r="G61">
+        <v>-0.03827923770528164</v>
+      </c>
+      <c r="H61">
+        <v>-0.0688182806453965</v>
+      </c>
+      <c r="I61">
+        <v>0.02445502045102394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.1305585828996528</v>
+        <v>-0.1387095952012529</v>
       </c>
       <c r="C62">
-        <v>-0.05041307119482987</v>
+        <v>-0.0001145903560193729</v>
       </c>
       <c r="D62">
-        <v>-0.003513667900603853</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04537053651691309</v>
+      </c>
+      <c r="E62">
+        <v>0.03996486843129694</v>
+      </c>
+      <c r="F62">
+        <v>-0.0269559626941297</v>
+      </c>
+      <c r="G62">
+        <v>-0.04076509651142483</v>
+      </c>
+      <c r="H62">
+        <v>-0.1910964816324255</v>
+      </c>
+      <c r="I62">
+        <v>-0.1087181412915068</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.05203788227635323</v>
+        <v>-0.04960991470892017</v>
       </c>
       <c r="C63">
-        <v>-0.02683528811943919</v>
+        <v>0.0005456324455496606</v>
       </c>
       <c r="D63">
-        <v>0.02676473510318969</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02778356367706764</v>
+      </c>
+      <c r="E63">
+        <v>-0.03464725721784908</v>
+      </c>
+      <c r="F63">
+        <v>0.005936998738620721</v>
+      </c>
+      <c r="G63">
+        <v>-0.04241237909296935</v>
+      </c>
+      <c r="H63">
+        <v>-0.03730383850855128</v>
+      </c>
+      <c r="I63">
+        <v>-0.01175556349195358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.1071863774157806</v>
+        <v>-0.1117077380347927</v>
       </c>
       <c r="C64">
-        <v>-0.04509302678799731</v>
+        <v>0.008482141191041476</v>
       </c>
       <c r="D64">
-        <v>0.01614837918602657</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03760282049152479</v>
+      </c>
+      <c r="E64">
+        <v>-0.03199556791090601</v>
+      </c>
+      <c r="F64">
+        <v>0.04694021210955844</v>
+      </c>
+      <c r="G64">
+        <v>-0.05476173962237309</v>
+      </c>
+      <c r="H64">
+        <v>-0.007327133795444042</v>
+      </c>
+      <c r="I64">
+        <v>0.02352913897013616</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.1260037871297624</v>
+        <v>-0.131113571989945</v>
       </c>
       <c r="C65">
-        <v>-0.05801979482373795</v>
+        <v>0.02910143357728617</v>
       </c>
       <c r="D65">
-        <v>0.009284417799906249</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03112142465055208</v>
+      </c>
+      <c r="E65">
+        <v>0.005412761632820736</v>
+      </c>
+      <c r="F65">
+        <v>0.03835046596377645</v>
+      </c>
+      <c r="G65">
+        <v>-0.07460146763561207</v>
+      </c>
+      <c r="H65">
+        <v>0.1815056524009158</v>
+      </c>
+      <c r="I65">
+        <v>-0.003233040328602406</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.1467546994657213</v>
+        <v>-0.149303271973249</v>
       </c>
       <c r="C66">
-        <v>-0.09339256326416794</v>
+        <v>-0.008333504912458593</v>
       </c>
       <c r="D66">
-        <v>0.08501629475134317</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.117951701414405</v>
+      </c>
+      <c r="E66">
+        <v>0.02652086229485864</v>
+      </c>
+      <c r="F66">
+        <v>0.003921717717279127</v>
+      </c>
+      <c r="G66">
+        <v>-0.08564954824456721</v>
+      </c>
+      <c r="H66">
+        <v>-0.07618149602601385</v>
+      </c>
+      <c r="I66">
+        <v>0.07091718628706031</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.08694895287938768</v>
+        <v>-0.09078155777009382</v>
       </c>
       <c r="C67">
-        <v>-0.01847991781823191</v>
+        <v>-0.01859405623524684</v>
       </c>
       <c r="D67">
-        <v>0.01106582986432721</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03205312989452042</v>
+      </c>
+      <c r="E67">
+        <v>-0.02108940557014538</v>
+      </c>
+      <c r="F67">
+        <v>0.009330114796969307</v>
+      </c>
+      <c r="G67">
+        <v>0.02427965973777953</v>
+      </c>
+      <c r="H67">
+        <v>-0.02048420422924683</v>
+      </c>
+      <c r="I67">
+        <v>-0.02036287873537295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04906232036896769</v>
+        <v>-0.06623453558387726</v>
       </c>
       <c r="C68">
-        <v>-0.02887330318713641</v>
+        <v>0.1997908213761656</v>
       </c>
       <c r="D68">
-        <v>-0.2599194834976593</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.1971946980725013</v>
+      </c>
+      <c r="E68">
+        <v>-0.04288895899486141</v>
+      </c>
+      <c r="F68">
+        <v>0.01558053631379224</v>
+      </c>
+      <c r="G68">
+        <v>-0.005571695258884877</v>
+      </c>
+      <c r="H68">
+        <v>-0.01507741634307462</v>
+      </c>
+      <c r="I68">
+        <v>0.02598660884329759</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05961636065706823</v>
+        <v>-0.05489301177431667</v>
       </c>
       <c r="C69">
-        <v>-0.02579817396658693</v>
+        <v>-0.005814500968736108</v>
       </c>
       <c r="D69">
-        <v>0.01827298261763139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02404099503963144</v>
+      </c>
+      <c r="E69">
+        <v>-0.02248744974926841</v>
+      </c>
+      <c r="F69">
+        <v>-0.01453986348125002</v>
+      </c>
+      <c r="G69">
+        <v>-0.00319258803692018</v>
+      </c>
+      <c r="H69">
+        <v>-0.04097995629284344</v>
+      </c>
+      <c r="I69">
+        <v>0.0162530530730845</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.0120661641335873</v>
+        <v>-0.03245177690357114</v>
       </c>
       <c r="C70">
-        <v>0.003417769008298331</v>
+        <v>-0.001623648305893195</v>
       </c>
       <c r="D70">
-        <v>-0.01347862707446255</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005366846789711041</v>
+      </c>
+      <c r="E70">
+        <v>0.02356908746391257</v>
+      </c>
+      <c r="F70">
+        <v>-0.008141561594444589</v>
+      </c>
+      <c r="G70">
+        <v>0.0249831896694655</v>
+      </c>
+      <c r="H70">
+        <v>0.01679754008868833</v>
+      </c>
+      <c r="I70">
+        <v>-0.0595472447095892</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.04667751666766919</v>
+        <v>-0.07206115388579473</v>
       </c>
       <c r="C71">
-        <v>-0.02469424959154707</v>
+        <v>0.2157383866188048</v>
       </c>
       <c r="D71">
-        <v>-0.2895738693453113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2135416905616324</v>
+      </c>
+      <c r="E71">
+        <v>-0.03603265044064588</v>
+      </c>
+      <c r="F71">
+        <v>0.04336653466879292</v>
+      </c>
+      <c r="G71">
+        <v>-0.004722458019896895</v>
+      </c>
+      <c r="H71">
+        <v>-0.01475741295527021</v>
+      </c>
+      <c r="I71">
+        <v>0.02592323445269775</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.141677786888059</v>
+        <v>-0.1410818577529981</v>
       </c>
       <c r="C72">
-        <v>-0.06008826763131181</v>
+        <v>0.0256353459933465</v>
       </c>
       <c r="D72">
-        <v>-0.02666729490392012</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01408844086801426</v>
+      </c>
+      <c r="E72">
+        <v>0.02986048347108299</v>
+      </c>
+      <c r="F72">
+        <v>-0.1613765565454098</v>
+      </c>
+      <c r="G72">
+        <v>-0.1208134189220274</v>
+      </c>
+      <c r="H72">
+        <v>0.00575844120801761</v>
+      </c>
+      <c r="I72">
+        <v>0.04127032379623959</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2754421603296123</v>
+        <v>-0.2780587510087024</v>
       </c>
       <c r="C73">
-        <v>-0.08412326775766935</v>
+        <v>-0.03675253090247406</v>
       </c>
       <c r="D73">
-        <v>0.04592752402461884</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.08432219988247276</v>
+      </c>
+      <c r="E73">
+        <v>0.2846360511868481</v>
+      </c>
+      <c r="F73">
+        <v>0.02836193986534289</v>
+      </c>
+      <c r="G73">
+        <v>0.2625259175914354</v>
+      </c>
+      <c r="H73">
+        <v>0.3638888278842076</v>
+      </c>
+      <c r="I73">
+        <v>0.2121840808718686</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.07965534454348273</v>
+        <v>-0.09068938370533133</v>
       </c>
       <c r="C74">
-        <v>-0.07596216185132443</v>
+        <v>0.0269756984488651</v>
       </c>
       <c r="D74">
-        <v>0.003097469860461632</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0642053585221211</v>
+      </c>
+      <c r="E74">
+        <v>0.01055847309913512</v>
+      </c>
+      <c r="F74">
+        <v>-0.0005803841305430364</v>
+      </c>
+      <c r="G74">
+        <v>0.02583123150943333</v>
+      </c>
+      <c r="H74">
+        <v>-0.1323145205648642</v>
+      </c>
+      <c r="I74">
+        <v>0.02735807142929392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1079729169018734</v>
+        <v>-0.1044226248663336</v>
       </c>
       <c r="C75">
-        <v>-0.04834876553224654</v>
+        <v>-0.00104489610366046</v>
       </c>
       <c r="D75">
-        <v>0.002767712962738934</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03190038226438139</v>
+      </c>
+      <c r="E75">
+        <v>0.0007691926971610324</v>
+      </c>
+      <c r="F75">
+        <v>-0.001793043018956621</v>
+      </c>
+      <c r="G75">
+        <v>0.00262007054653051</v>
+      </c>
+      <c r="H75">
+        <v>-0.1125952983640794</v>
+      </c>
+      <c r="I75">
+        <v>-0.05227444615471458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1263848537354227</v>
+        <v>-0.1344015197815792</v>
       </c>
       <c r="C76">
-        <v>-0.06874117657275837</v>
+        <v>0.008756838309952372</v>
       </c>
       <c r="D76">
-        <v>0.02137461491676402</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0688536673109616</v>
+      </c>
+      <c r="E76">
+        <v>0.001002774780839793</v>
+      </c>
+      <c r="F76">
+        <v>0.03784261447952485</v>
+      </c>
+      <c r="G76">
+        <v>-0.02278074477524529</v>
+      </c>
+      <c r="H76">
+        <v>-0.2542505449421867</v>
+      </c>
+      <c r="I76">
+        <v>-0.06605800846550464</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1239638762467096</v>
+        <v>-0.09837585921814752</v>
       </c>
       <c r="C77">
-        <v>-0.0190968240014875</v>
+        <v>-0.04333729657684698</v>
       </c>
       <c r="D77">
-        <v>0.06882211492652124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.02602179788952429</v>
+      </c>
+      <c r="E77">
+        <v>-0.05535424063776971</v>
+      </c>
+      <c r="F77">
+        <v>0.09161627959651386</v>
+      </c>
+      <c r="G77">
+        <v>-0.7693645044205897</v>
+      </c>
+      <c r="H77">
+        <v>0.321088451425407</v>
+      </c>
+      <c r="I77">
+        <v>-0.2956569690026546</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.1067564776450138</v>
+        <v>-0.149870437816979</v>
       </c>
       <c r="C78">
-        <v>-0.04856257830167883</v>
+        <v>-0.0023524211229351</v>
       </c>
       <c r="D78">
-        <v>0.07789598779272325</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08902346459422696</v>
+      </c>
+      <c r="E78">
+        <v>-0.04919185838073638</v>
+      </c>
+      <c r="F78">
+        <v>0.05904810438107911</v>
+      </c>
+      <c r="G78">
+        <v>-0.02576554943613798</v>
+      </c>
+      <c r="H78">
+        <v>0.1077512753971974</v>
+      </c>
+      <c r="I78">
+        <v>0.06937478125203574</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1370085296025034</v>
+        <v>-0.1423162481717661</v>
       </c>
       <c r="C79">
-        <v>-0.06248414196651178</v>
+        <v>0.001618883237106193</v>
       </c>
       <c r="D79">
-        <v>0.03079632613513103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05667336879116195</v>
+      </c>
+      <c r="E79">
+        <v>0.01379833776511419</v>
+      </c>
+      <c r="F79">
+        <v>0.01863853550558414</v>
+      </c>
+      <c r="G79">
+        <v>-0.02510165515010087</v>
+      </c>
+      <c r="H79">
+        <v>-0.1684740502568094</v>
+      </c>
+      <c r="I79">
+        <v>-0.02812210550840812</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.03378137293986151</v>
+        <v>-0.03853434564631596</v>
       </c>
       <c r="C80">
-        <v>-0.02437817392318238</v>
+        <v>0.00822590439906918</v>
       </c>
       <c r="D80">
-        <v>0.02551734649116455</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02094387762973938</v>
+      </c>
+      <c r="E80">
+        <v>0.0449334533138165</v>
+      </c>
+      <c r="F80">
+        <v>-0.0008461902826817235</v>
+      </c>
+      <c r="G80">
+        <v>0.0141356871592978</v>
+      </c>
+      <c r="H80">
+        <v>-0.02397201148748185</v>
+      </c>
+      <c r="I80">
+        <v>0.09418545512613298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1285621084419056</v>
+        <v>-0.1290731607058794</v>
       </c>
       <c r="C81">
-        <v>-0.07415565601383813</v>
+        <v>0.01817230584496884</v>
       </c>
       <c r="D81">
-        <v>0.01221155750805449</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.04978150915353651</v>
+      </c>
+      <c r="E81">
+        <v>0.01064743197865406</v>
+      </c>
+      <c r="F81">
+        <v>0.02183189205807395</v>
+      </c>
+      <c r="G81">
+        <v>-0.005896179455187446</v>
+      </c>
+      <c r="H81">
+        <v>-0.1604586649600115</v>
+      </c>
+      <c r="I81">
+        <v>0.006197639954056429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1281488908825486</v>
+        <v>-0.1293731798012524</v>
       </c>
       <c r="C82">
-        <v>-0.06667756388483743</v>
+        <v>0.01784711763539738</v>
       </c>
       <c r="D82">
-        <v>0.005737151699942845</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0477775917311347</v>
+      </c>
+      <c r="E82">
+        <v>0.02181265164004935</v>
+      </c>
+      <c r="F82">
+        <v>0.03614771603971707</v>
+      </c>
+      <c r="G82">
+        <v>0.001998473138378994</v>
+      </c>
+      <c r="H82">
+        <v>-0.2391517033474635</v>
+      </c>
+      <c r="I82">
+        <v>-0.06655143206318896</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06476347363606287</v>
+        <v>-0.0792395733799333</v>
       </c>
       <c r="C83">
-        <v>0.02702851467683843</v>
+        <v>-0.04418064971852904</v>
       </c>
       <c r="D83">
-        <v>0.02084882206207449</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0006221969845746612</v>
+      </c>
+      <c r="E83">
+        <v>-0.02255774103388364</v>
+      </c>
+      <c r="F83">
+        <v>0.0405831106924116</v>
+      </c>
+      <c r="G83">
+        <v>0.05189394680629218</v>
+      </c>
+      <c r="H83">
+        <v>0.01113140897692634</v>
+      </c>
+      <c r="I83">
+        <v>0.07813784776622905</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0299107690594499</v>
+        <v>-0.0327297597236801</v>
       </c>
       <c r="C84">
-        <v>-0.04425890804135059</v>
+        <v>0.002749052657480403</v>
       </c>
       <c r="D84">
-        <v>0.0308584702131845</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.051117495337729</v>
+      </c>
+      <c r="E84">
+        <v>-0.02183355823016542</v>
+      </c>
+      <c r="F84">
+        <v>-0.04301184172999517</v>
+      </c>
+      <c r="G84">
+        <v>0.01490609138464669</v>
+      </c>
+      <c r="H84">
+        <v>-0.03000696779496284</v>
+      </c>
+      <c r="I84">
+        <v>0.05406876938176944</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1147119066800029</v>
+        <v>-0.120114166673756</v>
       </c>
       <c r="C85">
-        <v>-0.04287610194286819</v>
+        <v>-0.006125363894793892</v>
       </c>
       <c r="D85">
-        <v>0.04289773720110845</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.04569061236286389</v>
+      </c>
+      <c r="E85">
+        <v>-0.004286004981338024</v>
+      </c>
+      <c r="F85">
+        <v>0.0439979870285374</v>
+      </c>
+      <c r="G85">
+        <v>-0.005013247526237021</v>
+      </c>
+      <c r="H85">
+        <v>-0.1482614717004984</v>
+      </c>
+      <c r="I85">
+        <v>-0.01096179947373479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04885545993989425</v>
+        <v>-0.04969396188943458</v>
       </c>
       <c r="C86">
-        <v>-0.03340450741881162</v>
+        <v>-0.009435354721200098</v>
       </c>
       <c r="D86">
-        <v>0.06784007981657723</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0446057735309786</v>
+      </c>
+      <c r="E86">
+        <v>-0.02995328884854679</v>
+      </c>
+      <c r="F86">
+        <v>0.02266577246643527</v>
+      </c>
+      <c r="G86">
+        <v>0.01395203674055244</v>
+      </c>
+      <c r="H86">
+        <v>0.04100326461352891</v>
+      </c>
+      <c r="I86">
+        <v>-0.05281374965883772</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.1207760044665495</v>
+        <v>-0.1250673028125722</v>
       </c>
       <c r="C87">
-        <v>-0.0745279193580511</v>
+        <v>-0.008592662401379915</v>
       </c>
       <c r="D87">
-        <v>0.06810763480071257</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0830952618162179</v>
+      </c>
+      <c r="E87">
+        <v>-0.02575836133318507</v>
+      </c>
+      <c r="F87">
+        <v>0.02801366376538712</v>
+      </c>
+      <c r="G87">
+        <v>-0.1473000952552532</v>
+      </c>
+      <c r="H87">
+        <v>0.08317722853955338</v>
+      </c>
+      <c r="I87">
+        <v>-0.0003433972681368615</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05632777075613626</v>
+        <v>-0.06397392162108084</v>
       </c>
       <c r="C88">
-        <v>-0.03427042761442735</v>
+        <v>-0.003452797793278964</v>
       </c>
       <c r="D88">
-        <v>0.02781157878055827</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04763214854621931</v>
+      </c>
+      <c r="E88">
+        <v>-0.0004843149932499563</v>
+      </c>
+      <c r="F88">
+        <v>0.02339751251313614</v>
+      </c>
+      <c r="G88">
+        <v>-0.006492310102151058</v>
+      </c>
+      <c r="H88">
+        <v>-0.04098904431916696</v>
+      </c>
+      <c r="I88">
+        <v>0.01297068189904471</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.07702642329840927</v>
+        <v>-0.1136839363516571</v>
       </c>
       <c r="C89">
-        <v>-0.047679010227209</v>
+        <v>0.2718544508036108</v>
       </c>
       <c r="D89">
-        <v>-0.3186702631234329</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2482745035978431</v>
+      </c>
+      <c r="E89">
+        <v>-0.04716768718625271</v>
+      </c>
+      <c r="F89">
+        <v>0.08057450556827672</v>
+      </c>
+      <c r="G89">
+        <v>0.02577757455191685</v>
+      </c>
+      <c r="H89">
+        <v>-0.02506666173826363</v>
+      </c>
+      <c r="I89">
+        <v>0.08062469815924553</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.06361030626888359</v>
+        <v>-0.08753293600901223</v>
       </c>
       <c r="C90">
-        <v>-0.02895595565058901</v>
+        <v>0.2080744667877311</v>
       </c>
       <c r="D90">
-        <v>-0.2762470363050819</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2075316986858757</v>
+      </c>
+      <c r="E90">
+        <v>-0.04774315488985734</v>
+      </c>
+      <c r="F90">
+        <v>0.03551489058071645</v>
+      </c>
+      <c r="G90">
+        <v>-0.03168762684649671</v>
+      </c>
+      <c r="H90">
+        <v>0.02052045411753968</v>
+      </c>
+      <c r="I90">
+        <v>0.07537283114766061</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.09326067071344205</v>
+        <v>-0.09103109787359796</v>
       </c>
       <c r="C91">
-        <v>-0.05168238288888678</v>
+        <v>0.003593946066350326</v>
       </c>
       <c r="D91">
-        <v>0.00702099048038604</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03982364062290138</v>
+      </c>
+      <c r="E91">
+        <v>0.000274449296950475</v>
+      </c>
+      <c r="F91">
+        <v>0.005698737586399109</v>
+      </c>
+      <c r="G91">
+        <v>0.01529743187465167</v>
+      </c>
+      <c r="H91">
+        <v>-0.09092899168700048</v>
+      </c>
+      <c r="I91">
+        <v>-0.04135187773166361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.06292629679087376</v>
+        <v>-0.08632420268596963</v>
       </c>
       <c r="C92">
-        <v>-0.03814360094023354</v>
+        <v>0.2413254495281358</v>
       </c>
       <c r="D92">
-        <v>-0.3310709893412755</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2351262013683695</v>
+      </c>
+      <c r="E92">
+        <v>-0.04945779836215133</v>
+      </c>
+      <c r="F92">
+        <v>0.0445056214294957</v>
+      </c>
+      <c r="G92">
+        <v>-0.003810555673200532</v>
+      </c>
+      <c r="H92">
+        <v>-0.02861040803230402</v>
+      </c>
+      <c r="I92">
+        <v>0.02780950258851708</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.0525661416419556</v>
+        <v>-0.08259603484647085</v>
       </c>
       <c r="C93">
-        <v>-0.04433700618280421</v>
+        <v>0.2372753377654346</v>
       </c>
       <c r="D93">
-        <v>-0.3062952578749664</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2108470248342102</v>
+      </c>
+      <c r="E93">
+        <v>-0.01202896223236289</v>
+      </c>
+      <c r="F93">
+        <v>0.03207188115066924</v>
+      </c>
+      <c r="G93">
+        <v>-0.02350299358488411</v>
+      </c>
+      <c r="H93">
+        <v>-0.000235510954583503</v>
+      </c>
+      <c r="I93">
+        <v>0.01042964916446564</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1313800012197003</v>
+        <v>-0.1270734032566749</v>
       </c>
       <c r="C94">
-        <v>-0.03415995489015122</v>
+        <v>-0.02388989353627466</v>
       </c>
       <c r="D94">
-        <v>0.04770990537783158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03987996629937861</v>
+      </c>
+      <c r="E94">
+        <v>0.02202952357999411</v>
+      </c>
+      <c r="F94">
+        <v>0.01516534524245296</v>
+      </c>
+      <c r="G94">
+        <v>0.03675089383911209</v>
+      </c>
+      <c r="H94">
+        <v>-0.1088208976668892</v>
+      </c>
+      <c r="I94">
+        <v>0.01109158867853493</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1201631169080466</v>
+        <v>-0.1321006314387133</v>
       </c>
       <c r="C95">
-        <v>-0.02964070992565433</v>
+        <v>-0.03120296994269732</v>
       </c>
       <c r="D95">
-        <v>0.06644653475443173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05736357282969619</v>
+      </c>
+      <c r="E95">
+        <v>0.0007412460669237959</v>
+      </c>
+      <c r="F95">
+        <v>0.04507842636511011</v>
+      </c>
+      <c r="G95">
+        <v>-0.03125133057807926</v>
+      </c>
+      <c r="H95">
+        <v>0.1166781524608035</v>
+      </c>
+      <c r="I95">
+        <v>-0.04320978648448379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.233539626109227</v>
+        <v>-0.1943202174419609</v>
       </c>
       <c r="C97">
-        <v>-0.0493089393063773</v>
+        <v>0.01433352496052233</v>
       </c>
       <c r="D97">
-        <v>-0.1266493311481697</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06453088250200405</v>
+      </c>
+      <c r="E97">
+        <v>-0.03784885242984944</v>
+      </c>
+      <c r="F97">
+        <v>-0.9334807179743286</v>
+      </c>
+      <c r="G97">
+        <v>-0.08560874497159267</v>
+      </c>
+      <c r="H97">
+        <v>0.01517725370733263</v>
+      </c>
+      <c r="I97">
+        <v>0.03102254300949419</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2466488464985335</v>
+        <v>-0.2792115983967899</v>
       </c>
       <c r="C98">
-        <v>-0.05653969091497432</v>
+        <v>-0.01010306027236172</v>
       </c>
       <c r="D98">
-        <v>0.0128099582566019</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.042919694073057</v>
+      </c>
+      <c r="E98">
+        <v>0.2067554792733386</v>
+      </c>
+      <c r="F98">
+        <v>0.009177756360734805</v>
+      </c>
+      <c r="G98">
+        <v>0.3187887987300998</v>
+      </c>
+      <c r="H98">
+        <v>0.1427233671675164</v>
+      </c>
+      <c r="I98">
+        <v>-0.571351976320522</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0.4086379548534936</v>
+        <v>-0.2568237580794229</v>
       </c>
       <c r="C99">
-        <v>0.8944740756672224</v>
+        <v>-0.7175415223120212</v>
       </c>
       <c r="D99">
-        <v>0.002605299761038611</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.6134861236267327</v>
+      </c>
+      <c r="E99">
+        <v>-0.08418998649784104</v>
+      </c>
+      <c r="F99">
+        <v>0.08377647255203555</v>
+      </c>
+      <c r="G99">
+        <v>0.003316999091427325</v>
+      </c>
+      <c r="H99">
+        <v>-0.07349105069480427</v>
+      </c>
+      <c r="I99">
+        <v>0.00261751464897192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.0461625390211685</v>
+        <v>-0.05110070173851949</v>
       </c>
       <c r="C101">
-        <v>-0.04048906952073848</v>
+        <v>0.01951103876095912</v>
       </c>
       <c r="D101">
-        <v>0.001301708108765223</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02951645971400106</v>
+      </c>
+      <c r="E101">
+        <v>-0.04460283486975809</v>
+      </c>
+      <c r="F101">
+        <v>0.02771569263310325</v>
+      </c>
+      <c r="G101">
+        <v>-0.008579236281063534</v>
+      </c>
+      <c r="H101">
+        <v>-0.09461188646954034</v>
+      </c>
+      <c r="I101">
+        <v>0.008449234555392586</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
